--- a/Online_Channel_Product_Sales.xlsx
+++ b/Online_Channel_Product_Sales.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1gMcZOHNLuRpTKirNFwRKfD-YOEvNk6Oe\Sage\900.working\정은\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E04300F7-A3B8-44FA-AA69-CE8685717525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B15D7CD-8EBD-4747-8AB6-66432FB3B816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="2688" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="1464" windowWidth="16392" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
     <sheet name="메타정보" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">데이터!$A$1:$D$2071</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -269,7 +266,7 @@
     <t>○ 자료다운일자</t>
   </si>
   <si>
-    <t>2020.11.09 16:23</t>
+    <t>2020.11.13 07:52</t>
   </si>
   <si>
     <t>○ 통계표URL</t>
@@ -290,10 +287,10 @@
     <t>백만원</t>
   </si>
   <si>
-    <t>2020. 08</t>
+    <t xml:space="preserve">2020. 08 </t>
   </si>
   <si>
-    <t>2020. 09</t>
+    <t xml:space="preserve">2020. 09 </t>
   </si>
 </sst>
 </file>
@@ -699,9 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2071"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F91" sqref="A1:D2071"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -29706,9 +29701,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2071" xr:uid="{6F9E145E-C9B7-49A8-BD66-01AAFA2314CD}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
